--- a/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H2">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.3874184929622</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N2">
-        <v>27.3874184929622</v>
+        <v>0.182684</v>
       </c>
       <c r="O2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q2">
-        <v>0.822310418795841</v>
+        <v>0.002171158743555556</v>
       </c>
       <c r="R2">
-        <v>0.822310418795841</v>
+        <v>0.019540428692</v>
       </c>
       <c r="S2">
-        <v>0.001879787664333851</v>
+        <v>4.592115266292263E-06</v>
       </c>
       <c r="T2">
-        <v>0.001879787664333851</v>
+        <v>4.592115266292261E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H3">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.72700770202426</v>
+        <v>28.046323</v>
       </c>
       <c r="N3">
-        <v>3.72700770202426</v>
+        <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q3">
-        <v>0.111903838804466</v>
+        <v>0.9999729490163335</v>
       </c>
       <c r="R3">
-        <v>0.111903838804466</v>
+        <v>8.999756541147001</v>
       </c>
       <c r="S3">
-        <v>0.0002558102767131119</v>
+        <v>0.002114995533462106</v>
       </c>
       <c r="T3">
-        <v>0.0002558102767131119</v>
+        <v>0.002114995533462105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.37872951245898</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H4">
-        <v>7.37872951245898</v>
+        <v>0.106963</v>
       </c>
       <c r="I4">
-        <v>0.5248272654004154</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J4">
-        <v>0.5248272654004154</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.3874184929622</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N4">
-        <v>27.3874184929622</v>
+        <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q4">
-        <v>202.084353104085</v>
+        <v>0.1384149828741111</v>
       </c>
       <c r="R4">
-        <v>202.084353104085</v>
+        <v>1.245734845867</v>
       </c>
       <c r="S4">
-        <v>0.4619614022113697</v>
+        <v>0.0002927549898534277</v>
       </c>
       <c r="T4">
-        <v>0.4619614022113697</v>
+        <v>0.0002927549898534277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.37872951245898</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H5">
-        <v>7.37872951245898</v>
+        <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.72700770202426</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N5">
-        <v>3.72700770202426</v>
+        <v>0.182684</v>
       </c>
       <c r="O5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q5">
-        <v>27.50058172408833</v>
+        <v>0.4912138518515556</v>
       </c>
       <c r="R5">
-        <v>27.50058172408833</v>
+        <v>4.420924666664001</v>
       </c>
       <c r="S5">
-        <v>0.06286586318904569</v>
+        <v>0.001038943207076482</v>
       </c>
       <c r="T5">
-        <v>0.06286586318904569</v>
+        <v>0.001038943207076482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.65059403514115</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H6">
-        <v>6.65059403514115</v>
+        <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J6">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.3874184929622</v>
+        <v>28.046323</v>
       </c>
       <c r="N6">
-        <v>27.3874184929622</v>
+        <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q6">
-        <v>182.1426020672089</v>
+        <v>226.2388991554193</v>
       </c>
       <c r="R6">
-        <v>182.1426020672089</v>
+        <v>2036.150092398774</v>
       </c>
       <c r="S6">
-        <v>0.416374897714406</v>
+        <v>0.4785072052996907</v>
       </c>
       <c r="T6">
-        <v>0.416374897714406</v>
+        <v>0.4785072052996906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.65059403514115</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H7">
-        <v>6.65059403514115</v>
+        <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J7">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72700770202426</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N7">
-        <v>3.72700770202426</v>
+        <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q7">
-        <v>24.78681519200767</v>
+        <v>31.31570047255711</v>
       </c>
       <c r="R7">
-        <v>24.78681519200767</v>
+        <v>281.841304253014</v>
       </c>
       <c r="S7">
-        <v>0.05666223894413167</v>
+        <v>0.06623435833124083</v>
       </c>
       <c r="T7">
-        <v>0.05666223894413167</v>
+        <v>0.06623435833124083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H8">
+        <v>20.033078</v>
+      </c>
+      <c r="I8">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J8">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06089466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.182684</v>
+      </c>
+      <c r="O8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="P8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="Q8">
+        <v>0.4066358690391111</v>
+      </c>
+      <c r="R8">
+        <v>3.659722821352</v>
+      </c>
+      <c r="S8">
+        <v>0.0008600563121324538</v>
+      </c>
+      <c r="T8">
+        <v>0.0008600563121324537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H9">
+        <v>20.033078</v>
+      </c>
+      <c r="I9">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J9">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.046323</v>
+      </c>
+      <c r="N9">
+        <v>84.138969</v>
+      </c>
+      <c r="O9">
+        <v>0.8767392739472014</v>
+      </c>
+      <c r="P9">
+        <v>0.8767392739472013</v>
+      </c>
+      <c r="Q9">
+        <v>187.2847254240647</v>
+      </c>
+      <c r="R9">
+        <v>1685.562528816582</v>
+      </c>
+      <c r="S9">
+        <v>0.3961170731140486</v>
+      </c>
+      <c r="T9">
+        <v>0.3961170731140485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H10">
+        <v>20.033078</v>
+      </c>
+      <c r="I10">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J10">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.882136333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.646409</v>
+      </c>
+      <c r="O10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="P10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="Q10">
+        <v>25.92371332410022</v>
+      </c>
+      <c r="R10">
+        <v>233.313419916902</v>
+      </c>
+      <c r="S10">
+        <v>0.0548300210972292</v>
+      </c>
+      <c r="T10">
+        <v>0.0548300210972292</v>
       </c>
     </row>
   </sheetData>
